--- a/database/industries/foroushgah/ofogh/product/quarterly_seprated.xlsx
+++ b/database/industries/foroushgah/ofogh/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\foroushgah\ofogh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE6F07-90EE-4D39-8FC7-5C048C75E43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,6 +37,21 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -60,19 +76,19 @@
     <t>عدد</t>
   </si>
   <si>
+    <t>نوشیدنی</t>
+  </si>
+  <si>
+    <t>شوینده</t>
+  </si>
+  <si>
+    <t>خوراکی</t>
+  </si>
+  <si>
+    <t>ملزومات/تجهیزات</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>نوشیدنی</t>
-  </si>
-  <si>
-    <t>شوینده</t>
-  </si>
-  <si>
-    <t>خوراکی</t>
-  </si>
-  <si>
-    <t>ملزومات/تجهیزات</t>
   </si>
   <si>
     <t>سبزیجات</t>
@@ -186,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,7 +395,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -391,7 +407,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -438,6 +454,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -473,6 +506,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,17 +674,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -643,8 +693,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,8 +710,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -667,8 +727,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -677,8 +742,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -689,8 +759,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -701,8 +776,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -711,8 +791,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -733,8 +818,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -743,10 +843,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -755,272 +860,442 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>594552</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
+        <v>433644</v>
+      </c>
+      <c r="F11" s="11">
+        <v>509032</v>
       </c>
       <c r="G11" s="11">
+        <v>456134</v>
+      </c>
+      <c r="H11" s="11">
+        <v>493641</v>
+      </c>
+      <c r="I11" s="11">
+        <v>135575</v>
+      </c>
+      <c r="J11" s="11">
+        <v>496537</v>
+      </c>
+      <c r="K11" s="11">
+        <v>348220</v>
+      </c>
+      <c r="L11" s="11">
         <v>284489</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>246712</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>297569</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>43451689</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
+        <v>39830517</v>
+      </c>
+      <c r="F12" s="13">
+        <v>32019339</v>
       </c>
       <c r="G12" s="13">
+        <v>30101897</v>
+      </c>
+      <c r="H12" s="13">
+        <v>42391625</v>
+      </c>
+      <c r="I12" s="13">
+        <v>50213497</v>
+      </c>
+      <c r="J12" s="13">
+        <v>36007389</v>
+      </c>
+      <c r="K12" s="13">
+        <v>30888194</v>
+      </c>
+      <c r="L12" s="13">
         <v>40608675</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>44552147</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>32749845</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>140607415</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>52481109</v>
+      </c>
+      <c r="F13" s="11">
+        <v>56326564</v>
       </c>
       <c r="G13" s="11">
+        <v>54003751</v>
+      </c>
+      <c r="H13" s="11">
+        <v>51414800</v>
+      </c>
+      <c r="I13" s="11">
+        <v>59916642</v>
+      </c>
+      <c r="J13" s="11">
+        <v>51822184</v>
+      </c>
+      <c r="K13" s="11">
+        <v>56308311</v>
+      </c>
+      <c r="L13" s="11">
         <v>55301250</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>44312756</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>51374240</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>225430635</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>175358151</v>
+      </c>
+      <c r="F14" s="13">
+        <v>188194419</v>
       </c>
       <c r="G14" s="13">
+        <v>189760257</v>
+      </c>
+      <c r="H14" s="13">
+        <v>179885072</v>
+      </c>
+      <c r="I14" s="13">
+        <v>186558756</v>
+      </c>
+      <c r="J14" s="13">
+        <v>169665933</v>
+      </c>
+      <c r="K14" s="13">
+        <v>208561132</v>
+      </c>
+      <c r="L14" s="13">
         <v>170624579</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>140054547</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>163931159</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>-9570</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>-1656</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1656</v>
+      </c>
+      <c r="J15" s="11">
+        <v>-1656</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2881</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>9570</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>87902</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>2372715</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1130262</v>
       </c>
       <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
+        <v>-508314</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>10159925</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>7770551</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7554064</v>
       </c>
       <c r="G17" s="11">
+        <v>6977923</v>
+      </c>
+      <c r="H17" s="11">
+        <v>7186549</v>
+      </c>
+      <c r="I17" s="11">
+        <v>7788724</v>
+      </c>
+      <c r="J17" s="11">
+        <v>7190121</v>
+      </c>
+      <c r="K17" s="11">
+        <v>7351196</v>
+      </c>
+      <c r="L17" s="11">
         <v>6228714</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>5776755</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>6255925</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>102628603</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
+        <v>94618011</v>
+      </c>
+      <c r="F18" s="13">
+        <v>90155213</v>
       </c>
       <c r="G18" s="13">
+        <v>85899901</v>
+      </c>
+      <c r="H18" s="13">
+        <v>91510590</v>
+      </c>
+      <c r="I18" s="13">
+        <v>101029680</v>
+      </c>
+      <c r="J18" s="13">
+        <v>83671897</v>
+      </c>
+      <c r="K18" s="13">
+        <v>84221158</v>
+      </c>
+      <c r="L18" s="13">
         <v>92633900</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>80949664</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>95676697</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>424691</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>15945</v>
+      </c>
+      <c r="F19" s="11">
+        <v>8475</v>
       </c>
       <c r="G19" s="11">
+        <v>1021512</v>
+      </c>
+      <c r="H19" s="11">
+        <v>306912</v>
+      </c>
+      <c r="I19" s="11">
+        <v>99208</v>
+      </c>
+      <c r="J19" s="11">
+        <v>19618</v>
+      </c>
+      <c r="K19" s="11">
+        <v>179132514</v>
+      </c>
+      <c r="L19" s="11">
         <v>1047</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>710</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+        <v>22</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="13">
         <v>599051</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>2676479</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>2676472</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>523287940</v>
+        <v>372880643</v>
       </c>
       <c r="F21" s="15">
-        <v>0</v>
+        <v>375895712</v>
       </c>
       <c r="G21" s="15">
+        <v>367713061</v>
+      </c>
+      <c r="H21" s="15">
+        <v>373189189</v>
+      </c>
+      <c r="I21" s="15">
+        <v>405743738</v>
+      </c>
+      <c r="J21" s="15">
+        <v>348872023</v>
+      </c>
+      <c r="K21" s="15">
+        <v>566813606</v>
+      </c>
+      <c r="L21" s="15">
         <v>366281705</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>318578630</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>353050519</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1029,10 +1304,15 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1051,10 +1331,25 @@
       <c r="I23" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1063,10 +1358,15 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1085,76 +1385,136 @@
       <c r="I25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>13</v>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
         <v>0</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>13</v>
+      <c r="F27" s="15">
+        <v>0</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
       </c>
-      <c r="H27" s="15">
-        <v>0</v>
+      <c r="H27" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I27" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>523287940</v>
+        <v>372880643</v>
       </c>
       <c r="F28" s="19">
-        <v>0</v>
+        <v>375895712</v>
       </c>
       <c r="G28" s="19">
+        <v>367713061</v>
+      </c>
+      <c r="H28" s="19">
+        <v>373189189</v>
+      </c>
+      <c r="I28" s="19">
+        <v>405743738</v>
+      </c>
+      <c r="J28" s="19">
+        <v>348872023</v>
+      </c>
+      <c r="K28" s="19">
+        <v>566813606</v>
+      </c>
+      <c r="L28" s="19">
         <v>366281705</v>
       </c>
-      <c r="H28" s="19">
+      <c r="M28" s="19">
         <v>318578630</v>
       </c>
-      <c r="I28" s="19">
+      <c r="N28" s="19">
         <v>353050519</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1163,8 +1523,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1173,8 +1538,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1183,10 +1553,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1205,8 +1580,23 @@
       <c r="I32" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1215,10 +1605,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1227,272 +1622,442 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>60035</v>
+      </c>
+      <c r="F35" s="11">
+        <v>84382</v>
+      </c>
+      <c r="G35" s="11">
+        <v>80610</v>
+      </c>
+      <c r="H35" s="11">
+        <v>47869</v>
+      </c>
+      <c r="I35" s="11">
+        <v>73296</v>
+      </c>
+      <c r="J35" s="11">
         <v>89648</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="K35" s="11">
+        <v>86835</v>
+      </c>
+      <c r="L35" s="11">
         <v>66205</v>
       </c>
-      <c r="H35" s="11">
+      <c r="M35" s="11">
         <v>68460</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>75437</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>1962981</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1906831</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1982895</v>
+      </c>
+      <c r="H36" s="13">
+        <v>3364929</v>
+      </c>
+      <c r="I36" s="13">
+        <v>4577699</v>
+      </c>
+      <c r="J36" s="13">
         <v>3311542</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
+        <v>2923686</v>
+      </c>
+      <c r="L36" s="13">
         <v>4040119</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>5187255</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>3548483</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
+        <v>6870186</v>
+      </c>
+      <c r="F37" s="11">
+        <v>8569527</v>
+      </c>
+      <c r="G37" s="11">
+        <v>9820668</v>
+      </c>
+      <c r="H37" s="11">
+        <v>10192360</v>
+      </c>
+      <c r="I37" s="11">
+        <v>12353851</v>
+      </c>
+      <c r="J37" s="11">
         <v>12220799</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="K37" s="11">
+        <v>13456505</v>
+      </c>
+      <c r="L37" s="11">
         <v>13934242</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>12816064</v>
       </c>
-      <c r="I37" s="11">
+      <c r="N37" s="11">
         <v>13796078</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>26660330</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>13</v>
+        <v>16169940</v>
+      </c>
+      <c r="F38" s="13">
+        <v>21034460</v>
       </c>
       <c r="G38" s="13">
+        <v>22863631</v>
+      </c>
+      <c r="H38" s="13">
+        <v>22202668</v>
+      </c>
+      <c r="I38" s="13">
+        <v>26426129</v>
+      </c>
+      <c r="J38" s="13">
+        <v>26662383</v>
+      </c>
+      <c r="K38" s="13">
+        <v>33953524</v>
+      </c>
+      <c r="L38" s="13">
         <v>37626860</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>43537037</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>42746014</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>-2755120</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>-514193</v>
       </c>
       <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="11">
+        <v>2755119</v>
+      </c>
+      <c r="J39" s="11">
+        <v>-2755119</v>
+      </c>
+      <c r="K39" s="11">
+        <v>4981818</v>
+      </c>
+      <c r="L39" s="11">
         <v>103535</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>293517</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>173348</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>13</v>
+        <v>147978</v>
+      </c>
+      <c r="F40" s="13">
+        <v>112923</v>
       </c>
       <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0</v>
+        <v>-62256</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="I40" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
+        <v>672398</v>
+      </c>
+      <c r="F41" s="11">
+        <v>809173</v>
+      </c>
+      <c r="G41" s="11">
+        <v>907796</v>
+      </c>
+      <c r="H41" s="11">
+        <v>941077</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1157554</v>
+      </c>
+      <c r="J41" s="11">
         <v>1156752</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="11">
+      <c r="K41" s="11">
+        <v>1212927</v>
+      </c>
+      <c r="L41" s="11">
         <v>1158618</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>1274970</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>1268124</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
+        <v>9436909</v>
+      </c>
+      <c r="F42" s="13">
+        <v>10905253</v>
+      </c>
+      <c r="G42" s="13">
+        <v>11228324</v>
+      </c>
+      <c r="H42" s="13">
+        <v>11544412</v>
+      </c>
+      <c r="I42" s="13">
+        <v>14090065</v>
+      </c>
+      <c r="J42" s="13">
         <v>14758965</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="13">
+      <c r="K42" s="13">
+        <v>15380817</v>
+      </c>
+      <c r="L42" s="13">
         <v>17679282</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>21012546</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>21326284</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>50175</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>13</v>
+        <v>2740</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1499</v>
       </c>
       <c r="G43" s="11">
+        <v>127609</v>
+      </c>
+      <c r="H43" s="11">
+        <v>35470</v>
+      </c>
+      <c r="I43" s="11">
+        <v>-33416</v>
+      </c>
+      <c r="J43" s="11">
+        <v>48121</v>
+      </c>
+      <c r="K43" s="11">
+        <v>708</v>
+      </c>
+      <c r="L43" s="11">
         <v>281</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>9</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="13">
+        <v>22</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="13">
         <v>60907</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>280666</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>279102</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>35323167</v>
+      </c>
+      <c r="F45" s="15">
+        <v>42909855</v>
+      </c>
+      <c r="G45" s="15">
+        <v>46949277</v>
+      </c>
+      <c r="H45" s="15">
+        <v>48328785</v>
+      </c>
+      <c r="I45" s="15">
+        <v>61400297</v>
+      </c>
+      <c r="J45" s="15">
         <v>55493091</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="K45" s="15">
+        <v>71996820</v>
+      </c>
+      <c r="L45" s="15">
         <v>74670049</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>84470524</v>
       </c>
-      <c r="I45" s="15">
+      <c r="N45" s="15">
         <v>83213067</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -1501,10 +2066,15 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -1523,10 +2093,25 @@
       <c r="I47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -1535,10 +2120,15 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -1557,78 +2147,138 @@
       <c r="I49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>13</v>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
         <v>0</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>13</v>
+      <c r="F51" s="15">
+        <v>0</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
       </c>
-      <c r="H51" s="15">
-        <v>0</v>
+      <c r="H51" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19">
+        <v>35323167</v>
+      </c>
+      <c r="F52" s="19">
+        <v>42909855</v>
+      </c>
+      <c r="G52" s="19">
+        <v>46949277</v>
+      </c>
+      <c r="H52" s="19">
+        <v>48328785</v>
+      </c>
+      <c r="I52" s="19">
+        <v>61400297</v>
+      </c>
+      <c r="J52" s="19">
         <v>55493091</v>
       </c>
-      <c r="F52" s="19">
-        <v>0</v>
-      </c>
-      <c r="G52" s="19">
+      <c r="K52" s="19">
+        <v>71996820</v>
+      </c>
+      <c r="L52" s="19">
         <v>74670049</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>84470524</v>
       </c>
-      <c r="I52" s="19">
+      <c r="N52" s="19">
         <v>83213067</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1637,8 +2287,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1647,8 +2302,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1657,10 +2317,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1679,8 +2344,23 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1689,10 +2369,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1701,248 +2386,403 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>138443</v>
+      </c>
+      <c r="F59" s="11">
+        <v>165770</v>
+      </c>
+      <c r="G59" s="11">
+        <v>176724</v>
+      </c>
+      <c r="H59" s="11">
+        <v>96971</v>
+      </c>
+      <c r="I59" s="11">
+        <v>540631</v>
+      </c>
+      <c r="J59" s="11">
         <v>203985</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>249368</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>232716</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>277490</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>253511</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>49283</v>
+      </c>
+      <c r="F60" s="13">
+        <v>59552</v>
+      </c>
+      <c r="G60" s="13">
+        <v>65873</v>
+      </c>
+      <c r="H60" s="13">
+        <v>79377</v>
+      </c>
+      <c r="I60" s="13">
+        <v>91165</v>
+      </c>
+      <c r="J60" s="13">
         <v>91101</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>94654</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>99489</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>116431</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>108351</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
+        <v>130908</v>
+      </c>
+      <c r="F61" s="11">
+        <v>152140</v>
+      </c>
+      <c r="G61" s="11">
+        <v>181852</v>
+      </c>
+      <c r="H61" s="11">
+        <v>198238</v>
+      </c>
+      <c r="I61" s="11">
+        <v>206184</v>
+      </c>
+      <c r="J61" s="11">
         <v>235248</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>238979</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>251970</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>289218</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>268541</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>92211</v>
+      </c>
+      <c r="F62" s="13">
+        <v>111770</v>
+      </c>
+      <c r="G62" s="13">
+        <v>120487</v>
+      </c>
+      <c r="H62" s="13">
+        <v>123427</v>
+      </c>
+      <c r="I62" s="13">
+        <v>141650</v>
+      </c>
+      <c r="J62" s="13">
         <v>146502</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>162799</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>220524</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>310858</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>260756</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="11">
+        <v>22</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1663719203</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="11">
         <v>1729197501</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="11">
+      <c r="L63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="11">
         <v>30670533</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>1972060</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>13</v>
+      <c r="E64" s="13">
+        <v>62367</v>
+      </c>
+      <c r="F64" s="13">
+        <v>99909</v>
+      </c>
+      <c r="G64" s="13">
+        <v>122475</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>86532</v>
+      </c>
+      <c r="F65" s="11">
+        <v>107118</v>
+      </c>
+      <c r="G65" s="11">
+        <v>130095</v>
+      </c>
+      <c r="H65" s="11">
+        <v>130950</v>
+      </c>
+      <c r="I65" s="11">
+        <v>148619</v>
+      </c>
+      <c r="J65" s="11">
         <v>160307</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>164997</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>186012</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>220707</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>202708</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
+        <v>99737</v>
+      </c>
+      <c r="F66" s="13">
+        <v>120961</v>
+      </c>
+      <c r="G66" s="13">
+        <v>130714</v>
+      </c>
+      <c r="H66" s="13">
+        <v>126154</v>
+      </c>
+      <c r="I66" s="13">
+        <v>139465</v>
+      </c>
+      <c r="J66" s="13">
         <v>175675</v>
       </c>
-      <c r="F66" s="13">
+      <c r="K66" s="13">
         <v>182624</v>
       </c>
-      <c r="G66" s="13">
+      <c r="L66" s="13">
         <v>190851</v>
       </c>
-      <c r="H66" s="13">
+      <c r="M66" s="13">
         <v>259575</v>
       </c>
-      <c r="I66" s="13">
+      <c r="N66" s="13">
         <v>222899</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>171841</v>
+      </c>
+      <c r="F67" s="11">
+        <v>176873</v>
+      </c>
+      <c r="G67" s="11">
+        <v>124922</v>
+      </c>
+      <c r="H67" s="11">
+        <v>115571</v>
+      </c>
+      <c r="I67" s="11">
+        <v>-336828</v>
+      </c>
+      <c r="J67" s="11">
         <v>131025</v>
       </c>
-      <c r="F67" s="11">
+      <c r="K67" s="11">
         <v>4</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>268386</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="11">
+      <c r="M67" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N67" s="11">
         <v>277465</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="13">
+        <v>22</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="13">
         <v>101672</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>104864</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>104280</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1951,8 +2791,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1961,8 +2806,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1971,10 +2821,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1993,8 +2848,23 @@
       <c r="I72" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2003,10 +2873,15 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2015,272 +2890,442 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>-30243</v>
+      </c>
+      <c r="F75" s="11">
+        <v>-41730</v>
+      </c>
+      <c r="G75" s="11">
+        <v>-47977</v>
+      </c>
+      <c r="H75" s="11">
+        <v>-27231</v>
+      </c>
+      <c r="I75" s="11">
+        <v>-39332</v>
+      </c>
+      <c r="J75" s="11">
         <v>-54608</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>118345</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>-36852</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>-34283</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>-50246</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
+        <v>-1247464</v>
+      </c>
+      <c r="F76" s="13">
+        <v>-1545555</v>
+      </c>
+      <c r="G76" s="13">
+        <v>-973761</v>
+      </c>
+      <c r="H76" s="13">
+        <v>-2207180</v>
+      </c>
+      <c r="I76" s="13">
+        <v>-3133705</v>
+      </c>
+      <c r="J76" s="13">
         <v>-2532189</v>
       </c>
-      <c r="F76" s="13">
+      <c r="K76" s="13">
         <v>-2055559</v>
       </c>
-      <c r="G76" s="13">
+      <c r="L76" s="13">
         <v>-3185763</v>
       </c>
-      <c r="H76" s="13">
+      <c r="M76" s="13">
         <v>-3977299</v>
       </c>
-      <c r="I76" s="13">
+      <c r="N76" s="13">
         <v>-2616890</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>-5378728</v>
+      </c>
+      <c r="F77" s="11">
+        <v>-6574687</v>
+      </c>
+      <c r="G77" s="11">
+        <v>-8023335</v>
+      </c>
+      <c r="H77" s="11">
+        <v>-8191299</v>
+      </c>
+      <c r="I77" s="11">
+        <v>-10220702</v>
+      </c>
+      <c r="J77" s="11">
         <v>-8327906</v>
       </c>
-      <c r="F77" s="11">
+      <c r="K77" s="11">
         <v>-10579166</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>-10647010</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>-9787328</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>-10371997</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>-12589713</v>
+      </c>
+      <c r="F78" s="13">
+        <v>-15930537</v>
+      </c>
+      <c r="G78" s="13">
+        <v>-20716350</v>
+      </c>
+      <c r="H78" s="13">
+        <v>-18852367</v>
+      </c>
+      <c r="I78" s="13">
+        <v>-22282696</v>
+      </c>
+      <c r="J78" s="13">
         <v>-21438287</v>
       </c>
-      <c r="F78" s="13">
+      <c r="K78" s="13">
         <v>-26695953</v>
       </c>
-      <c r="G78" s="13">
+      <c r="L78" s="13">
         <v>-31027571</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>-35505394</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>-36842333</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
         <v>0</v>
       </c>
       <c r="F79" s="11">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="11">
+        <v>-2280755</v>
+      </c>
+      <c r="J79" s="11">
+        <v>0</v>
+      </c>
+      <c r="K79" s="11">
         <v>-4041728</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>-41331</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>-138412</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>-107657</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>0</v>
+        <v>-142580</v>
       </c>
       <c r="F80" s="13">
-        <v>0</v>
+        <v>-122383</v>
       </c>
       <c r="G80" s="13">
-        <v>0</v>
-      </c>
-      <c r="H80" s="13">
-        <v>0</v>
+        <v>82639</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="I80" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="13">
+        <v>0</v>
+      </c>
+      <c r="K80" s="13">
+        <v>0</v>
+      </c>
+      <c r="L80" s="13">
+        <v>0</v>
+      </c>
+      <c r="M80" s="13">
+        <v>0</v>
+      </c>
+      <c r="N80" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>-377354</v>
+      </c>
+      <c r="F81" s="11">
+        <v>-514783</v>
+      </c>
+      <c r="G81" s="11">
+        <v>-509330</v>
+      </c>
+      <c r="H81" s="11">
+        <v>-595666</v>
+      </c>
+      <c r="I81" s="11">
+        <v>-733386</v>
+      </c>
+      <c r="J81" s="11">
         <v>-845103</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>-756073</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L81" s="11">
         <v>-690402</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>-620552</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>-948470</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
+        <v>-7934081</v>
+      </c>
+      <c r="F82" s="13">
+        <v>-10559596</v>
+      </c>
+      <c r="G82" s="13">
+        <v>-8367200</v>
+      </c>
+      <c r="H82" s="13">
+        <v>-9865185</v>
+      </c>
+      <c r="I82" s="13">
+        <v>-12093860</v>
+      </c>
+      <c r="J82" s="13">
         <v>-15687337</v>
       </c>
-      <c r="F82" s="13">
+      <c r="K82" s="13">
         <v>-12346388</v>
       </c>
-      <c r="G82" s="13">
+      <c r="L82" s="13">
         <v>-14706130</v>
       </c>
-      <c r="H82" s="13">
+      <c r="M82" s="13">
         <v>-17487910</v>
       </c>
-      <c r="I82" s="13">
+      <c r="N82" s="13">
         <v>-16815173</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>-2289</v>
+      </c>
+      <c r="F83" s="11">
+        <v>-2823</v>
+      </c>
+      <c r="G83" s="11">
+        <v>-122642</v>
+      </c>
+      <c r="H83" s="11">
+        <v>-34547</v>
+      </c>
+      <c r="I83" s="11">
+        <v>-12966</v>
+      </c>
+      <c r="J83" s="11">
         <v>-3104</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>-35</v>
       </c>
-      <c r="G83" s="11">
-        <v>0</v>
-      </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L83" s="11">
+        <v>0</v>
+      </c>
+      <c r="M83" s="11">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="13">
+        <v>22</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="13">
         <v>-56232</v>
       </c>
-      <c r="H84" s="13">
+      <c r="M84" s="13">
         <v>-253675</v>
       </c>
-      <c r="I84" s="13">
+      <c r="N84" s="13">
         <v>-232749</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15">
+        <v>-27702452</v>
+      </c>
+      <c r="F85" s="15">
+        <v>-35292094</v>
+      </c>
+      <c r="G85" s="15">
+        <v>-38677956</v>
+      </c>
+      <c r="H85" s="15">
+        <v>-39773475</v>
+      </c>
+      <c r="I85" s="15">
+        <v>-50797402</v>
+      </c>
+      <c r="J85" s="15">
         <v>-48888534</v>
       </c>
-      <c r="F85" s="15">
+      <c r="K85" s="15">
         <v>-56356557</v>
       </c>
-      <c r="G85" s="15">
+      <c r="L85" s="15">
         <v>-60391291</v>
       </c>
-      <c r="H85" s="15">
+      <c r="M85" s="15">
         <v>-67804853</v>
       </c>
-      <c r="I85" s="15">
+      <c r="N85" s="15">
         <v>-67985515</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -2289,10 +3334,15 @@
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -2311,10 +3361,25 @@
       <c r="I87" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="15">
+        <v>0</v>
+      </c>
+      <c r="K87" s="15">
+        <v>0</v>
+      </c>
+      <c r="L87" s="15">
+        <v>0</v>
+      </c>
+      <c r="M87" s="15">
+        <v>0</v>
+      </c>
+      <c r="N87" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -2323,10 +3388,15 @@
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
@@ -2345,37 +3415,67 @@
       <c r="I89" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="15">
+        <v>0</v>
+      </c>
+      <c r="K89" s="15">
+        <v>0</v>
+      </c>
+      <c r="L89" s="15">
+        <v>0</v>
+      </c>
+      <c r="M89" s="15">
+        <v>0</v>
+      </c>
+      <c r="N89" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D90" s="19"/>
-      <c r="E90" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>13</v>
+      <c r="E90" s="19">
+        <v>0</v>
+      </c>
+      <c r="F90" s="19">
+        <v>0</v>
+      </c>
+      <c r="G90" s="19">
+        <v>0</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N90" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15">
@@ -2387,36 +3487,66 @@
       <c r="G91" s="15">
         <v>0</v>
       </c>
-      <c r="H91" s="15">
-        <v>0</v>
+      <c r="H91" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I91" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="15">
+        <v>0</v>
+      </c>
+      <c r="K91" s="15">
+        <v>0</v>
+      </c>
+      <c r="L91" s="15">
+        <v>0</v>
+      </c>
+      <c r="M91" s="15">
+        <v>0</v>
+      </c>
+      <c r="N91" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19">
+        <v>-27702452</v>
+      </c>
+      <c r="F92" s="19">
+        <v>-35292094</v>
+      </c>
+      <c r="G92" s="19">
+        <v>-38677956</v>
+      </c>
+      <c r="H92" s="19">
+        <v>-39773475</v>
+      </c>
+      <c r="I92" s="19">
+        <v>-50797402</v>
+      </c>
+      <c r="J92" s="19">
         <v>-48888534</v>
       </c>
-      <c r="F92" s="19">
+      <c r="K92" s="19">
         <v>-56356557</v>
       </c>
-      <c r="G92" s="19">
+      <c r="L92" s="19">
         <v>-60391291</v>
       </c>
-      <c r="H92" s="19">
+      <c r="M92" s="19">
         <v>-67804853</v>
       </c>
-      <c r="I92" s="19">
+      <c r="N92" s="19">
         <v>-67985515</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2425,8 +3555,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2435,8 +3570,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2445,10 +3585,15 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -2467,8 +3612,23 @@
       <c r="I96" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2477,10 +3637,15 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -2489,272 +3654,442 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>29792</v>
+      </c>
+      <c r="F99" s="11">
+        <v>42652</v>
+      </c>
+      <c r="G99" s="11">
+        <v>32633</v>
+      </c>
+      <c r="H99" s="11">
+        <v>20638</v>
+      </c>
+      <c r="I99" s="11">
+        <v>33964</v>
+      </c>
+      <c r="J99" s="11">
         <v>37541</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>205180</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>29353</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>34177</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>25191</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>715517</v>
+      </c>
+      <c r="F100" s="13">
+        <v>361276</v>
+      </c>
+      <c r="G100" s="13">
+        <v>1009134</v>
+      </c>
+      <c r="H100" s="13">
+        <v>1157749</v>
+      </c>
+      <c r="I100" s="13">
+        <v>1443994</v>
+      </c>
+      <c r="J100" s="13">
         <v>807532</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>868127</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>854356</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>1209956</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>931593</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
+        <v>1491458</v>
+      </c>
+      <c r="F101" s="11">
+        <v>1994840</v>
+      </c>
+      <c r="G101" s="11">
+        <v>1797333</v>
+      </c>
+      <c r="H101" s="11">
+        <v>2001061</v>
+      </c>
+      <c r="I101" s="11">
+        <v>2133149</v>
+      </c>
+      <c r="J101" s="11">
         <v>3956086</v>
       </c>
-      <c r="F101" s="11">
+      <c r="K101" s="11">
         <v>2877339</v>
       </c>
-      <c r="G101" s="11">
+      <c r="L101" s="11">
         <v>3287232</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>3028736</v>
       </c>
-      <c r="I101" s="11">
+      <c r="N101" s="11">
         <v>3424081</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13">
+        <v>3580227</v>
+      </c>
+      <c r="F102" s="13">
+        <v>5103923</v>
+      </c>
+      <c r="G102" s="13">
+        <v>2147281</v>
+      </c>
+      <c r="H102" s="13">
+        <v>3350301</v>
+      </c>
+      <c r="I102" s="13">
+        <v>4143433</v>
+      </c>
+      <c r="J102" s="13">
         <v>5185054</v>
       </c>
-      <c r="F102" s="13">
+      <c r="K102" s="13">
         <v>7257571</v>
       </c>
-      <c r="G102" s="13">
+      <c r="L102" s="13">
         <v>6599289</v>
       </c>
-      <c r="H102" s="13">
+      <c r="M102" s="13">
         <v>8031643</v>
       </c>
-      <c r="I102" s="13">
+      <c r="N102" s="13">
         <v>5903681</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
         <v>0</v>
       </c>
       <c r="F103" s="11">
+        <v>0</v>
+      </c>
+      <c r="G103" s="11">
+        <v>0</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="11">
+        <v>474364</v>
+      </c>
+      <c r="J103" s="11">
+        <v>0</v>
+      </c>
+      <c r="K103" s="11">
         <v>940090</v>
       </c>
-      <c r="G103" s="11">
+      <c r="L103" s="11">
         <v>62204</v>
       </c>
-      <c r="H103" s="11">
+      <c r="M103" s="11">
         <v>155105</v>
       </c>
-      <c r="I103" s="11">
+      <c r="N103" s="11">
         <v>65691</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>0</v>
+        <v>5398</v>
       </c>
       <c r="F104" s="13">
-        <v>0</v>
+        <v>-9460</v>
       </c>
       <c r="G104" s="13">
-        <v>0</v>
-      </c>
-      <c r="H104" s="13">
-        <v>0</v>
+        <v>20383</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="I104" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="13">
+        <v>0</v>
+      </c>
+      <c r="K104" s="13">
+        <v>0</v>
+      </c>
+      <c r="L104" s="13">
+        <v>0</v>
+      </c>
+      <c r="M104" s="13">
+        <v>0</v>
+      </c>
+      <c r="N104" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
+        <v>295044</v>
+      </c>
+      <c r="F105" s="11">
+        <v>294390</v>
+      </c>
+      <c r="G105" s="11">
+        <v>398466</v>
+      </c>
+      <c r="H105" s="11">
+        <v>345411</v>
+      </c>
+      <c r="I105" s="11">
+        <v>424168</v>
+      </c>
+      <c r="J105" s="11">
         <v>319670</v>
       </c>
-      <c r="F105" s="11">
+      <c r="K105" s="11">
         <v>456854</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>468216</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>654418</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>319654</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
+        <v>1502828</v>
+      </c>
+      <c r="F106" s="13">
+        <v>345657</v>
+      </c>
+      <c r="G106" s="13">
+        <v>2861124</v>
+      </c>
+      <c r="H106" s="13">
+        <v>1679227</v>
+      </c>
+      <c r="I106" s="13">
+        <v>1996205</v>
+      </c>
+      <c r="J106" s="13">
         <v>-816289</v>
       </c>
-      <c r="F106" s="13">
+      <c r="K106" s="13">
         <v>3034429</v>
       </c>
-      <c r="G106" s="13">
+      <c r="L106" s="13">
         <v>2973152</v>
       </c>
-      <c r="H106" s="13">
+      <c r="M106" s="13">
         <v>3524636</v>
       </c>
-      <c r="I106" s="13">
+      <c r="N106" s="13">
         <v>4511111</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>451</v>
+      </c>
+      <c r="F107" s="11">
+        <v>-1324</v>
+      </c>
+      <c r="G107" s="11">
+        <v>4967</v>
+      </c>
+      <c r="H107" s="11">
+        <v>923</v>
+      </c>
+      <c r="I107" s="11">
+        <v>-46382</v>
+      </c>
+      <c r="J107" s="11">
         <v>-293</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>673</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>281</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>9</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="13">
+        <v>22</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" s="13">
         <v>4675</v>
       </c>
-      <c r="H108" s="13">
+      <c r="M108" s="13">
         <v>26991</v>
       </c>
-      <c r="I108" s="13">
+      <c r="N108" s="13">
         <v>46353</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
+        <v>7620715</v>
+      </c>
+      <c r="F109" s="15">
+        <v>8131954</v>
+      </c>
+      <c r="G109" s="15">
+        <v>8271321</v>
+      </c>
+      <c r="H109" s="15">
+        <v>8555310</v>
+      </c>
+      <c r="I109" s="15">
+        <v>10602895</v>
+      </c>
+      <c r="J109" s="15">
         <v>9489301</v>
       </c>
-      <c r="F109" s="15">
+      <c r="K109" s="15">
         <v>15640263</v>
       </c>
-      <c r="G109" s="15">
+      <c r="L109" s="15">
         <v>14278758</v>
       </c>
-      <c r="H109" s="15">
+      <c r="M109" s="15">
         <v>16665671</v>
       </c>
-      <c r="I109" s="15">
+      <c r="N109" s="15">
         <v>15227552</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -2763,10 +4098,15 @@
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
@@ -2785,10 +4125,25 @@
       <c r="I111" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="15">
+        <v>0</v>
+      </c>
+      <c r="K111" s="15">
+        <v>0</v>
+      </c>
+      <c r="L111" s="15">
+        <v>0</v>
+      </c>
+      <c r="M111" s="15">
+        <v>0</v>
+      </c>
+      <c r="N111" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -2797,10 +4152,15 @@
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
@@ -2819,26 +4179,56 @@
       <c r="I113" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="15">
+        <v>0</v>
+      </c>
+      <c r="K113" s="15">
+        <v>0</v>
+      </c>
+      <c r="L113" s="15">
+        <v>0</v>
+      </c>
+      <c r="M113" s="15">
+        <v>0</v>
+      </c>
+      <c r="N113" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="19">
+        <v>7620715</v>
+      </c>
+      <c r="F114" s="19">
+        <v>8131954</v>
+      </c>
+      <c r="G114" s="19">
+        <v>8271321</v>
+      </c>
+      <c r="H114" s="19">
+        <v>8555310</v>
+      </c>
+      <c r="I114" s="19">
+        <v>10602895</v>
+      </c>
+      <c r="J114" s="19">
         <v>9489301</v>
       </c>
-      <c r="F114" s="19">
+      <c r="K114" s="19">
         <v>15640263</v>
       </c>
-      <c r="G114" s="19">
+      <c r="L114" s="19">
         <v>14278758</v>
       </c>
-      <c r="H114" s="19">
+      <c r="M114" s="19">
         <v>16665671</v>
       </c>
-      <c r="I114" s="19">
+      <c r="N114" s="19">
         <v>15227552</v>
       </c>
     </row>

--- a/database/industries/foroushgah/ofogh/product/quarterly_seprated.xlsx
+++ b/database/industries/foroushgah/ofogh/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE6F07-90EE-4D39-8FC7-5C048C75E43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E4785-AA53-43CA-8074-A295F39DFA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -679,12 +679,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -849,7 +849,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -905,7 +905,7 @@
         <v>297569</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -944,7 +944,7 @@
         <v>32749845</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -983,7 +983,7 @@
         <v>51374240</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>163931159</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>87902</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>6255925</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>95676697</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>2676472</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>28</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>353050519</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>30</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>35</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>353050519</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1529,7 +1529,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1544,7 +1544,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1559,7 +1559,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1611,7 +1611,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>38</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>75437</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>3548483</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>13796078</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>20</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>42746014</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>21</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>173348</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>24</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>1268124</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>25</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>21326284</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>279102</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>28</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>83213067</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>40</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>30</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
         <v>41</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>32</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="18" t="s">
         <v>33</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>35</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>36</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>83213067</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2293,7 +2293,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2308,7 +2308,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2323,7 +2323,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>42</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2375,7 +2375,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>43</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>253511</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>18</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>108351</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>268541</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>260756</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>21</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>1972060</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>23</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>24</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>202708</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>25</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>222899</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>26</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>277465</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>27</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>104280</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2797,7 +2797,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2812,7 +2812,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2827,7 +2827,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>45</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2879,7 +2879,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>46</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>-50246</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>18</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>-2616890</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>-10371997</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>20</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>-36842333</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>21</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>-107657</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>23</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>24</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>-948470</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>25</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>-16815173</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>26</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>27</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>-232749</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>47</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>-67985515</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>48</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>49</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="16" t="s">
         <v>50</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="14" t="s">
         <v>51</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
         <v>33</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>35</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
         <v>36</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>-67985515</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3561,7 +3561,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3576,7 +3576,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3591,7 +3591,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>52</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3643,7 +3643,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>53</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>25191</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>18</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>931593</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>19</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>3424081</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>20</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>5903681</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>21</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>65691</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>23</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>24</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>319654</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>25</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>4511111</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>26</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>27</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>46353</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>54</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>15227552</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="16" t="s">
         <v>55</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>56</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="16" t="s">
         <v>57</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
         <v>58</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="18" t="s">
         <v>36</v>
       </c>
